--- a/仕様書/イベントの仕様書.xlsx
+++ b/仕様書/イベントの仕様書.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="アラートの仕様" sheetId="1" r:id="rId1"/>
+    <sheet name="カウントダウン" sheetId="2" r:id="rId2"/>
+    <sheet name="ゲーム開始時の仕様" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>特売品の出現時</t>
     <rPh sb="0" eb="3">
@@ -62,12 +64,100 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲーム開始時に３、２、１、GOでゲーム開始する</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心に数字表示</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時にマップ全体を見れるようにする</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM再生</t>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面はゆっくりステージを回す感じで見る</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半回転したらゲーム本編に移動</t>
+    <rPh sb="0" eb="3">
+      <t>ハンカイテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホンペン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考としてスプラトゥーンのゲーム開始時のカメラアングル</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +178,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,8 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -147,7 +245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -201,7 +305,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -255,7 +365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -309,7 +425,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -361,7 +483,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -415,7 +543,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -469,7 +603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -523,7 +663,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -577,7 +723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="楕円 9"/>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -634,7 +786,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="月 10"/>
+        <xdr:cNvPr id="11" name="月 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -688,7 +846,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -740,7 +904,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -797,7 +967,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -841,26 +1017,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120589" y="1221441"/>
-          <a:ext cx="3204882" cy="1378323"/>
+          <a:off x="571500" y="1221441"/>
+          <a:ext cx="4247030" cy="1378323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,13 +1076,1023 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ALERT</a:t>
+            <a:t>DENGER</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1F167F-A40C-426B-9EC4-23DD285C7BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2965077"/>
+          <a:ext cx="4852146" cy="1378323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ここにアナウンスの文字を流す</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OOOOOO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>202694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D56979-CBA6-4C05-B992-1A90ED32B603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051177" y="908665"/>
+          <a:ext cx="2891118" cy="534478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E528DC41-1953-43D3-97FE-BBB6970C4E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="254374"/>
+          <a:ext cx="4549028" cy="2919132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCE74D2-7A8D-4CC1-87BD-55835DE0A099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="2105024"/>
+          <a:ext cx="609600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E1428A-7AFE-4870-89FC-613A3505E483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="2609850"/>
+          <a:ext cx="561975" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483A1D4C-A162-4A24-BCBC-F94E21DBCEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="533400"/>
+          <a:ext cx="771525" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF287EAC-7D86-4A23-AE26-822ECFD606B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="647700"/>
+          <a:ext cx="428625" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C07C556-C418-4D8F-A90B-6C7C10EF687F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="904875"/>
+          <a:ext cx="161925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57368043-FEC8-4374-9EB8-C4242955DB15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="904875"/>
+          <a:ext cx="161925" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C5F0AE-E4AA-4674-83A8-2D2E710BD8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="790575"/>
+          <a:ext cx="1933575" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8D38E0-5D8A-4569-BF6C-E4D78B118AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="619125"/>
+          <a:ext cx="485775" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>415926</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105934</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>197200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="月 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942393BD-F423-40AB-BC38-9C17CEEDA311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="452780" flipH="1">
+          <a:off x="3159126" y="545937"/>
+          <a:ext cx="375808" cy="603763"/>
+        </a:xfrm>
+        <a:prstGeom prst="moon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2CBCCA-06AE-4D43-BD5A-669BC72D581C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="552450"/>
+          <a:ext cx="952500" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE389EE7-0486-4EF8-8564-E5D04FEEA31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1826559" y="526676"/>
+          <a:ext cx="1165412" cy="1378323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>643055</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AB1D42-FAE1-4B6B-AAF2-AE92CA3800A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="138546"/>
+          <a:ext cx="8263055" cy="5029885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>536865</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D846B436-D217-4BDE-B0AF-C639225D2735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2008908"/>
+          <a:ext cx="8849592" cy="865909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OOO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マーケット</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1171,22 +2363,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1195,4 +2390,263 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026FC56C-2D2C-4DE5-A2AA-A6FF1E55FACB}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB526687-13B5-4EF9-8311-8C0329251B60}">
+  <dimension ref="M2:M7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" activeCellId="1" sqref="M7 M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/仕様書/イベントの仕様書.xlsx
+++ b/仕様書/イベントの仕様書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="アラートの仕様" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,116 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ゲーム開始時に３、２、１、GOでゲーム開始する</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心に数字表示</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時にマップ全体を見れるようにする</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM再生</t>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面はゆっくりステージを回す感じで見る</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半回転したらゲーム本編に移動</t>
+    <rPh sb="0" eb="3">
+      <t>ハンカイテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホンペン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考としてスプラトゥーンのゲーム開始時のカメラアングル</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>ALERTと表示され特売品が出現する</t>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と点滅して表示され特売品が出現する</t>
     </r>
     <r>
       <rPr>
@@ -50,105 +158,20 @@
       </rPr>
       <t>（３秒）</t>
     </r>
-    <rPh sb="6" eb="8">
+    <rPh sb="7" eb="9">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="10" eb="13">
+    <rPh sb="15" eb="18">
       <t>トクバイヒン</t>
     </rPh>
-    <rPh sb="14" eb="16">
+    <rPh sb="19" eb="21">
       <t>シュツゲン</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="25" eb="26">
       <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始時に３、２、１、GOでゲーム開始する</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中心に数字表示</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始時にマップ全体を見れるようにする</t>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM再生</t>
-    <rPh sb="3" eb="5">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面はゆっくりステージを回す感じで見る</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半回転したらゲーム本編に移動</t>
-    <rPh sb="0" eb="3">
-      <t>ハンカイテン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホンペン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参考としてスプラトゥーンのゲーム開始時のカメラアングル</t>
-    <rPh sb="0" eb="2">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2363,11 +2387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2381,8 +2405,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026FC56C-2D2C-4DE5-A2AA-A6FF1E55FACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2404,7 +2428,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -2565,7 +2589,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2610,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB526687-13B5-4EF9-8311-8C0329251B60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M2:M7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2621,27 +2645,27 @@
   <sheetData>
     <row r="2" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
